--- a/app/src/main/res/raw/pregnancy_visit_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_visit_form.xlsx
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="468">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t xml:space="preserve">1.0. Code d’Enregistrement de la Grossesse  </t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የእርግዝና ምዝገባ መለያ ቁጥር  </t>
+  </si>
+  <si>
     <t>visitType</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t xml:space="preserve">1.1. Type de Visite  </t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የጉብኝት አይነት  </t>
+  </si>
+  <si>
     <t>visitCode</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t xml:space="preserve">1.2. Code de la Visite  </t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የጉብኝት መለያ  </t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t xml:space="preserve">2.1. Code de la Mère  </t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የእናቱ መለያ  </t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t xml:space="preserve">2.2. Nom de la Mère  </t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የእናቱ ስም  </t>
+  </si>
+  <si>
     <t>visitNumber</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
     <t xml:space="preserve">3.1. Numéro de la Visite  </t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የጉብኝት ቁጥር  </t>
+  </si>
+  <si>
     <t>visitDate</t>
   </si>
   <si>
@@ -208,6 +229,9 @@
     <t xml:space="preserve">3.2. Date de la Visite  </t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. የጉብኝት ቀን  </t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t xml:space="preserve">4.1. Quel est le statut actuel de la grossesse ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">4.1. አሁን የእርግዝናዋ ሁኔታ ምንድነው?  </t>
+  </si>
+  <si>
     <t>weeksGestation</t>
   </si>
   <si>
@@ -235,6 +262,9 @@
     <t>5.1. Depuis combien de semaines la mère est-elle enceinte?</t>
   </si>
   <si>
+    <t xml:space="preserve">5.1. እናቱ ምን ሳምንት እርጉዛ ናት?  </t>
+  </si>
+  <si>
     <t>${status} != 'LOST_TRACK' and ${visitType}='ANTEPARTUM'</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t xml:space="preserve">5.2. La mère a-t-elle eu des consultations prénatales ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.2. እናቱ የቅድመ ወሊድ የጤና ጥናት ተሳትፋችው?  </t>
+  </si>
+  <si>
     <t>prenatalCareProvider</t>
   </si>
   <si>
@@ -268,6 +301,9 @@
     <t xml:space="preserve">5.2.1. Où la mère a-t-elle reçu ses soins prénatals ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.2.1. እናቱ የቅድመ ወሊድ ጥናት የተቀበለችበት ቦታ ምንድነው?  </t>
+  </si>
+  <si>
     <t>${prenatalCareReceived}='TRUE'</t>
   </si>
   <si>
@@ -283,6 +319,9 @@
     <t xml:space="preserve">5.3. La mère a-t-elle eu des problèmes de santé ou complications pendant la grossesse?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.3. እናቱ በእርግዝና ወቅት የጤና ችግሮች ወይም ውስብስብ አሳየች?  </t>
+  </si>
+  <si>
     <t>complicationDetails</t>
   </si>
   <si>
@@ -295,6 +334,9 @@
     <t xml:space="preserve">5.3.1. Veuillez préciser les complications signalées.  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.3.1. እባኮትን የተገለጹትን ውስብስቦች ዝርዝር ይስጡ።  </t>
+  </si>
+  <si>
     <t>${complicationsReported}='TRUE'</t>
   </si>
   <si>
@@ -310,6 +352,9 @@
     <t xml:space="preserve">5.4. La mère a-t-elle un plan d’accouchement ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.4. እናቱ የወሊድ ዕቅድ አላት?  </t>
+  </si>
+  <si>
     <t>expectedBirthPlace</t>
   </si>
   <si>
@@ -325,6 +370,9 @@
     <t xml:space="preserve">5.4.1. Où la mère prévoit-elle d’accoucher ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.4.1. እናቱ የምትወልድበትን ቦታ ወቅታዊ ያወቀች?  </t>
+  </si>
+  <si>
     <t>${hasBirthPlan}='TRUE'</t>
   </si>
   <si>
@@ -340,6 +388,9 @@
     <t xml:space="preserve">5.4.2. Veuillez préciser où la mère prévoit d’accoucher.  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.4.2. እባኮትን እናቱ የምትወልድበትን ቦታ ይግለጹ።  </t>
+  </si>
+  <si>
     <t>${expectedBirthPlace}='OTHER'</t>
   </si>
   <si>
@@ -355,6 +406,9 @@
     <t xml:space="preserve">5.5. La mère a-t-elle organisé un moyen de transport pour l’accouchement?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.5. እናቱ ለወሊድ ትራንስፖርት አዘጋጅታለች?  </t>
+  </si>
+  <si>
     <t>financialPreparedness</t>
   </si>
   <si>
@@ -367,6 +421,9 @@
     <t xml:space="preserve">5.6. La mère a-t-elle un soutien financier pour les frais médicaux liés à l’accouchement?  </t>
   </si>
   <si>
+    <t xml:space="preserve">5.6. እናቱ ከወሊድ ጋር የተያያዘ የሕክምና ክፍያ የገንዘብ ድጋፍ አላት?  </t>
+  </si>
+  <si>
     <t>postpartumComplications</t>
   </si>
   <si>
@@ -379,6 +436,9 @@
     <t xml:space="preserve">6.1. Y a-t-il eu des complications pendant ou après l’accouchement?  </t>
   </si>
   <si>
+    <t xml:space="preserve">6.1. በወሊድ ወቅት ወይም በኋላ ችግሮች ነበሩ?  </t>
+  </si>
+  <si>
     <t>${status} != 'LOST_TRACK' and ${visitType}='POSTPARTUM'</t>
   </si>
   <si>
@@ -394,6 +454,9 @@
     <t xml:space="preserve">6.1.1. Si des complications sont survenues, veuillez préciser.  </t>
   </si>
   <si>
+    <t xml:space="preserve">6.1.1. ችግሮች ካሉ እባኮትን ዝርዝር ይስጡ።  </t>
+  </si>
+  <si>
     <t>${postpartumComplications}='TRUE'</t>
   </si>
   <si>
@@ -412,6 +475,9 @@
     <t xml:space="preserve">6.2. Statut de l’allaitement de la mère  </t>
   </si>
   <si>
+    <t xml:space="preserve">6.2. የእናቱ ጡት አቀራረብ ሁኔታ  </t>
+  </si>
+  <si>
     <t>resumedDailyActivities</t>
   </si>
   <si>
@@ -424,6 +490,9 @@
     <t xml:space="preserve">6.3. La mère a-t-elle repris ses activités quotidiennes normales?  </t>
   </si>
   <si>
+    <t xml:space="preserve">6.3. እናቱ ወደ ተለምዶ የነበሩት የዕለት ተዕለት እንቅስቃሴዎች ተመለሰች?  </t>
+  </si>
+  <si>
     <t>attendedPostpartumCheckup</t>
   </si>
   <si>
@@ -436,16 +505,22 @@
     <t xml:space="preserve">6.4. La mère a-t-elle effectué une visite de contrôle postnatale?  </t>
   </si>
   <si>
+    <t xml:space="preserve">6.4. እናቱ የወሊድ በኋላ የጤና ምርመራ ተዳምጣለች?  </t>
+  </si>
+  <si>
     <t>numberOfChilds</t>
   </si>
   <si>
     <t>7.0. Number of Childs</t>
   </si>
   <si>
-    <t>3.1. Número de bebês nascidos?</t>
-  </si>
-  <si>
-    <t>3.1. Nombre de bébés nés?</t>
+    <t>7.0. Número de bebês nascidos?</t>
+  </si>
+  <si>
+    <t>7.0. Nombre de bébés nés?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0. የሕፃናት ብዛት  </t>
   </si>
   <si>
     <t>childs</t>
@@ -466,6 +541,9 @@
     <t xml:space="preserve">7. Résultats de l’Enfant  </t>
   </si>
   <si>
+    <t xml:space="preserve">7. የሕፃኑ ውጤቶች  </t>
+  </si>
+  <si>
     <t>outcomeType</t>
   </si>
   <si>
@@ -481,6 +559,9 @@
     <t xml:space="preserve">7.1. Type de Résultat  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.1. የውጤት አይነት  </t>
+  </si>
+  <si>
     <t>childCode</t>
   </si>
   <si>
@@ -493,6 +574,9 @@
     <t xml:space="preserve">7.2. Code de l’Enfant  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.2. የሕፃኑ መለያ  </t>
+  </si>
+  <si>
     <t>childName</t>
   </si>
   <si>
@@ -505,6 +589,9 @@
     <t xml:space="preserve">7.3. Nom de l’Enfant  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.3. የሕፃኑ ስም  </t>
+  </si>
+  <si>
     <t>childGender</t>
   </si>
   <si>
@@ -520,6 +607,9 @@
     <t xml:space="preserve">7.4. Sexe de l’Enfant  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.4. የሕፃኑ ጾታ  </t>
+  </si>
+  <si>
     <t>childStatus</t>
   </si>
   <si>
@@ -535,6 +625,9 @@
     <t xml:space="preserve">7.5. Quel est le statut actuel de l’enfant ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.5. የሕፃኑ ወቅታዊ ሁኔታ ምንድነው?  </t>
+  </si>
+  <si>
     <t>childWeight</t>
   </si>
   <si>
@@ -550,6 +643,9 @@
     <t xml:space="preserve">7.6. Quel est le poids actuel de l’enfant ? (kg)  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.6. የሕፃኑ አሁን ክብደት ስንት ኪ.ግ ነው?  </t>
+  </si>
+  <si>
     <t>${childStatus}='ALIVE'</t>
   </si>
   <si>
@@ -565,6 +661,9 @@
     <t xml:space="preserve">7.7. L’enfant a-t-il présenté récemment des symptômes de maladie ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.7. ሕፃኑ በቅርቡ የበሽታ ምልክቶች አሳየ?  </t>
+  </si>
+  <si>
     <t>${childStatus}='ALIVE' or ${childStatus}='DIED_AFTER_BIRTH'</t>
   </si>
   <si>
@@ -586,6 +685,9 @@
     <t>7.7.1. Quels symptômes l’enfant a-t-il présentés ?</t>
   </si>
   <si>
+    <t xml:space="preserve">7.7.1. ሕፃኑ የሚታዩትን ምልክቶች ይግለጹ።  </t>
+  </si>
+  <si>
     <t>${hadIllnessSymptoms}='TRUE'</t>
   </si>
   <si>
@@ -601,6 +703,9 @@
     <t xml:space="preserve">7.8. L’enfant est-il actuellement allaité ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.8. ሕፃኑ በአሁኑ ጊዜ ጡት ተሰብሳቢ ነው?  </t>
+  </si>
+  <si>
     <t>childImmunizationStatus</t>
   </si>
   <si>
@@ -616,6 +721,9 @@
     <t xml:space="preserve">7.9. L’enfant est-il à jour avec ses vaccinations ?  </t>
   </si>
   <si>
+    <t xml:space="preserve">7.9. ሕፃኑ በእርምጃ እንደተደረገ በጉዞ ይገኛል?  </t>
+  </si>
+  <si>
     <t>hasNotes</t>
   </si>
   <si>
@@ -628,6 +736,9 @@
     <t>7.10. Y a-t-il des observations supplémentaires ?</t>
   </si>
   <si>
+    <t xml:space="preserve">7.10. ተጨማሪ መረጃዎች አሉ?  </t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -640,6 +751,9 @@
     <t>7.10.1. Observations supplémentaires</t>
   </si>
   <si>
+    <t xml:space="preserve">7.10.1. ተጨማሪ ማስታወቂያዎች  </t>
+  </si>
+  <si>
     <t>${hasNotes} = 'TRUE'</t>
   </si>
   <si>
@@ -664,6 +778,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመሰብሰቢያ ሰራተኛ ተመዝግቧል  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -679,6 +796,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተመዝግቧል  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -688,18 +808,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መለያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የቤተሰቡ መለያ ተመዝግቧል  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የአባል መለያ ተመዝግቧል  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -712,6 +841,9 @@
     <t>Accès aux modules autorisé</t>
   </si>
   <si>
+    <t>ለሞገስ የተፈቀዱ ሞገሶች</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -727,6 +859,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -739,6 +874,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይ  </t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -751,6 +889,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -763,6 +904,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>UNK</t>
   </si>
   <si>
@@ -775,6 +919,9 @@
     <t>Inconnu</t>
   </si>
   <si>
+    <t xml:space="preserve">ያልታወቀ  </t>
+  </si>
+  <si>
     <t>${outcomeType}!='LBR'</t>
   </si>
   <si>
@@ -790,6 +937,9 @@
     <t>Visite prénatale (Pendant la grossesse)</t>
   </si>
   <si>
+    <t xml:space="preserve">የእርግዝና ጊዜ ጉብኝት (በእርግዝና ወቅት)  </t>
+  </si>
+  <si>
     <t>POSTPARTUM</t>
   </si>
   <si>
@@ -802,6 +952,9 @@
     <t>Visite postnatale (Après l'accouchement)</t>
   </si>
   <si>
+    <t xml:space="preserve">የወሊድ በኋላ ጉብኝት  </t>
+  </si>
+  <si>
     <t>PREGNANT</t>
   </si>
   <si>
@@ -814,6 +967,9 @@
     <t>Enceinte</t>
   </si>
   <si>
+    <t xml:space="preserve">እርግዝና ያለባት  </t>
+  </si>
+  <si>
     <t>DELIVERED</t>
   </si>
   <si>
@@ -826,6 +982,9 @@
     <t>A déjà accouché</t>
   </si>
   <si>
+    <t xml:space="preserve">ወለደች  </t>
+  </si>
+  <si>
     <t>LOST_TRACK</t>
   </si>
   <si>
@@ -838,6 +997,9 @@
     <t>État inconnu/perdu</t>
   </si>
   <si>
+    <t xml:space="preserve">ሁኔታዋን አጣች  </t>
+  </si>
+  <si>
     <t>ALIVE</t>
   </si>
   <si>
@@ -850,6 +1012,9 @@
     <t>Vivant</t>
   </si>
   <si>
+    <t xml:space="preserve">በሕይወት ናት  </t>
+  </si>
+  <si>
     <t>SBR</t>
   </si>
   <si>
@@ -862,6 +1027,9 @@
     <t>Mort-né</t>
   </si>
   <si>
+    <t xml:space="preserve">ያልተነቃቃ ህፃን  </t>
+  </si>
+  <si>
     <t>MIS</t>
   </si>
   <si>
@@ -874,6 +1042,9 @@
     <t>Avortement spontané</t>
   </si>
   <si>
+    <t xml:space="preserve">ጠፍቷል  </t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
@@ -886,6 +1057,9 @@
     <t>Avortement provoqué</t>
   </si>
   <si>
+    <t xml:space="preserve">አቦርሽን  </t>
+  </si>
+  <si>
     <t>DIED_AFTER_BIRTH</t>
   </si>
   <si>
@@ -898,6 +1072,9 @@
     <t>Décédé Après la Naissance</t>
   </si>
   <si>
+    <t xml:space="preserve">ከተወለደ በኋላ ሞተ  </t>
+  </si>
+  <si>
     <t>LBR</t>
   </si>
   <si>
@@ -910,6 +1087,9 @@
     <t>Né vivant</t>
   </si>
   <si>
+    <t xml:space="preserve">የበሽታ የተወለደ  </t>
+  </si>
+  <si>
     <t>Stillbirth</t>
   </si>
   <si>
@@ -931,6 +1111,9 @@
     <t>À la maison</t>
   </si>
   <si>
+    <t xml:space="preserve">ቤት  </t>
+  </si>
+  <si>
     <t>HOSPITAL</t>
   </si>
   <si>
@@ -943,6 +1126,9 @@
     <t>Unité sanitaire/Hôpital public</t>
   </si>
   <si>
+    <t xml:space="preserve">ሆስፒታል  </t>
+  </si>
+  <si>
     <t>TRADITIONAL_MIDWIFE</t>
   </si>
   <si>
@@ -955,6 +1141,9 @@
     <t>Chez la sage-femme traditionnelle</t>
   </si>
   <si>
+    <t xml:space="preserve">የባህላዊ የወሊድ ረዳት ቤት  </t>
+  </si>
+  <si>
     <t>HEALTH_CENTER_CLINIC</t>
   </si>
   <si>
@@ -967,6 +1156,9 @@
     <t>Centre de santé/clinique privée</t>
   </si>
   <si>
+    <t xml:space="preserve">የጤና ማዕከል ወይም ክሊኒክ  </t>
+  </si>
+  <si>
     <t>ON_THE_WAY</t>
   </si>
   <si>
@@ -979,6 +1171,9 @@
     <t>En route vers la clinique/l'hôpital</t>
   </si>
   <si>
+    <t xml:space="preserve">በክሊኒክ/ሆስፒታል መንገድ ላይ  </t>
+  </si>
+  <si>
     <t>PRIVATE_MAT_HOME</t>
   </si>
   <si>
@@ -991,6 +1186,9 @@
     <t>Maternité Privée</t>
   </si>
   <si>
+    <t xml:space="preserve">የግል የምጥ ቤት  </t>
+  </si>
+  <si>
     <t xml:space="preserve">OTHER </t>
   </si>
   <si>
@@ -1003,6 +1201,9 @@
     <t>Autre parent</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ  </t>
+  </si>
+  <si>
     <t>EXCLUSIVE</t>
   </si>
   <si>
@@ -1015,6 +1216,9 @@
     <t>Allaitement Exclusif</t>
   </si>
   <si>
+    <t xml:space="preserve">በፍጹም  </t>
+  </si>
+  <si>
     <t>PARTIAL</t>
   </si>
   <si>
@@ -1027,6 +1231,9 @@
     <t>Allaitement Partiel</t>
   </si>
   <si>
+    <t xml:space="preserve">በከፊል  </t>
+  </si>
+  <si>
     <t>NOT_BREASTFEEDING</t>
   </si>
   <si>
@@ -1039,6 +1246,9 @@
     <t>Pas d'Allaitement</t>
   </si>
   <si>
+    <t xml:space="preserve">ጡት አታሳልፋት  </t>
+  </si>
+  <si>
     <t>UP_TO_DATE</t>
   </si>
   <si>
@@ -1051,6 +1261,9 @@
     <t>À jour</t>
   </si>
   <si>
+    <t xml:space="preserve">በወቅቱ  </t>
+  </si>
+  <si>
     <t>PARTIALLY_DONE</t>
   </si>
   <si>
@@ -1063,6 +1276,9 @@
     <t>Partiellement effectuée</t>
   </si>
   <si>
+    <t xml:space="preserve">በከፊል የተደረገ  </t>
+  </si>
+  <si>
     <t>NOT_DONE</t>
   </si>
   <si>
@@ -1075,6 +1291,9 @@
     <t>Non effectuée</t>
   </si>
   <si>
+    <t xml:space="preserve">አልተደረገም  </t>
+  </si>
+  <si>
     <t>UNKNOWN</t>
   </si>
   <si>
@@ -1090,6 +1309,9 @@
     <t>Fièvre</t>
   </si>
   <si>
+    <t xml:space="preserve">ትኩሳት  </t>
+  </si>
+  <si>
     <t>DIARRHEA</t>
   </si>
   <si>
@@ -1102,6 +1324,9 @@
     <t>Diarrhée</t>
   </si>
   <si>
+    <t xml:space="preserve">የጨሃብ ችግር  </t>
+  </si>
+  <si>
     <t>COUGH</t>
   </si>
   <si>
@@ -1114,6 +1339,9 @@
     <t>Toux</t>
   </si>
   <si>
+    <t xml:space="preserve">ሳህን  </t>
+  </si>
+  <si>
     <t>BREATHING_PROBLEMS</t>
   </si>
   <si>
@@ -1126,6 +1354,9 @@
     <t>Problèmes respiratoires</t>
   </si>
   <si>
+    <t xml:space="preserve">የመተንፈሻ ችግር  </t>
+  </si>
+  <si>
     <t>RASH</t>
   </si>
   <si>
@@ -1138,6 +1369,9 @@
     <t>Éruption cutanée</t>
   </si>
   <si>
+    <t xml:space="preserve">ቆዳ እብጠት  </t>
+  </si>
+  <si>
     <t>VOMITING</t>
   </si>
   <si>
@@ -1150,6 +1384,9 @@
     <t>Vomissements</t>
   </si>
   <si>
+    <t xml:space="preserve">ማስከሻ  </t>
+  </si>
+  <si>
     <t>EYE_DISCHARGE</t>
   </si>
   <si>
@@ -1162,6 +1399,9 @@
     <t>Écoulement oculaire</t>
   </si>
   <si>
+    <t xml:space="preserve">የዓይን ፍሳሽ  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -1171,6 +1411,9 @@
     <t>Autre</t>
   </si>
   <si>
+    <t>ሌላ</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -1183,6 +1426,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -1202,6 +1448,9 @@
   </si>
   <si>
     <t>Suivi de la Visite de Grossesse</t>
+  </si>
+  <si>
+    <t>የእርግዝና ጉብኝት ተከታታይ</t>
   </si>
   <si>
     <t>rawPregnancyVisitChild</t>
@@ -1212,10 +1461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1256,16 +1505,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,10 +1536,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1294,6 +1551,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1302,29 +1567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,17 +1590,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,6 +1619,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1376,25 +1642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,126 +1705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1588,7 +1717,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,43 +1861,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,6 +1988,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1789,21 +2053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1830,157 +2079,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2044,17 +2296,44 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -2063,9 +2342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2134,17 +2410,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,10 +2767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2483,18 +2780,19 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="29.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" style="39" customWidth="1"/>
-    <col min="7" max="7" width="24.1809523809524" style="39" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="49" customWidth="1"/>
+    <col min="7" max="7" width="24.1809523809524" style="49" customWidth="1"/>
     <col min="8" max="8" width="71.9142857142857" customWidth="1"/>
     <col min="9" max="9" width="68.6857142857143" customWidth="1"/>
-    <col min="10" max="10" width="74.2761904761905" style="40" customWidth="1"/>
-    <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
-    <col min="13" max="13" width="26.9333333333333" customWidth="1"/>
-    <col min="15" max="15" width="62.1142857142857" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="10" max="10" width="74.2761904761905" style="50" customWidth="1"/>
+    <col min="11" max="11" width="53.2857142857143" customWidth="1"/>
+    <col min="12" max="13" width="16.2666666666667" customWidth="1"/>
+    <col min="14" max="14" width="26.9333333333333" customWidth="1"/>
+    <col min="16" max="16" width="62.1142857142857" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,10 +2808,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2522,7 +2820,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="76" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2537,1353 +2835,1490 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="49" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="49"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="41" t="s">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="13" customHeight="1" spans="1:16">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" ht="13" customHeight="1" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="13" customHeight="1" spans="1:15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="67"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="13" customHeight="1" spans="1:14">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="13" customHeight="1" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="45" customFormat="1" spans="1:16">
+      <c r="A9" s="53"/>
+      <c r="D9" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" s="46" customFormat="1" spans="1:16">
+      <c r="A10" s="54"/>
+      <c r="D10" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="35" customFormat="1" spans="1:15">
-      <c r="A9" s="44"/>
-      <c r="D9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="44"/>
-    </row>
-    <row r="10" s="36" customFormat="1" spans="1:15">
-      <c r="A10" s="45"/>
-      <c r="D10" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A11" s="45"/>
-      <c r="D11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A12" s="45"/>
-      <c r="D12" s="36" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="60" t="s">
+      <c r="I10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="36" t="s">
+      <c r="J10" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="K10" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="45" t="s">
+    </row>
+    <row r="11" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A11" s="54"/>
+      <c r="D11" s="46" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A13" s="45"/>
-      <c r="D13" s="36" t="s">
+      <c r="E11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="36" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J11" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A14" s="45"/>
-      <c r="D14" s="36" t="s">
+      <c r="K11" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="36" t="s">
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A12" s="54"/>
+      <c r="D12" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="E12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="45" t="s">
+      <c r="I12" s="46" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A15" s="45"/>
-      <c r="D15" s="36" t="s">
+      <c r="J12" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="36" t="s">
+      <c r="K12" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="72" t="s">
+    </row>
+    <row r="13" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A13" s="54"/>
+      <c r="D13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A16" s="45"/>
-      <c r="D16" s="36" t="s">
+      <c r="E13" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="60" t="s">
+      <c r="I13" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="36" t="s">
+      <c r="J13" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="K13" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A14" s="54"/>
+      <c r="D14" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="45" t="s">
+      <c r="E14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A17" s="45"/>
-      <c r="D17" s="36" t="s">
+      <c r="I14" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="36" t="s">
+      <c r="J14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="K14" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="45" t="s">
+    </row>
+    <row r="15" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A15" s="54"/>
+      <c r="D15" s="46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="E15" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="36" t="s">
+      <c r="I15" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="J15" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="K15" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" s="36" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A19" s="45"/>
-      <c r="D19" s="36" t="s">
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A16" s="54"/>
+      <c r="D16" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="36" t="s">
+      <c r="E16" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="I16" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" s="37" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A20" s="46"/>
-      <c r="D20" s="37" t="s">
+      <c r="J16" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="37" t="s">
+      <c r="K16" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="54" t="s">
         <v>107</v>
       </c>
+    </row>
+    <row r="17" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A17" s="54"/>
+      <c r="D17" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A18" s="54"/>
+      <c r="D18" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="69"/>
+      <c r="H18" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" s="46" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A19" s="54"/>
+      <c r="D19" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" s="47" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A20" s="55"/>
+      <c r="D20" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="70"/>
+      <c r="H20" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>126</v>
+      </c>
       <c r="J20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" s="37" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A21" s="46"/>
-      <c r="D21" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" s="47" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A21" s="55"/>
+      <c r="D21" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" s="37" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A22" s="46"/>
-      <c r="D22" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" s="47" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A22" s="55"/>
+      <c r="D22" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="70"/>
+      <c r="H22" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" s="37" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A23" s="46"/>
-      <c r="D23" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" s="47" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A23" s="55"/>
+      <c r="D23" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" s="37" customFormat="1" ht="12" customHeight="1" spans="1:15">
-      <c r="A24" s="46"/>
-      <c r="D24" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" s="47" customFormat="1" ht="12" customHeight="1" spans="1:16">
+      <c r="A24" s="55"/>
+      <c r="D24" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="70"/>
+      <c r="H24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" s="37" customFormat="1" ht="12" customHeight="1" spans="1:17">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="38" customFormat="1" spans="1:16">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J26" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="P26" s="50"/>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="25" s="47" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="48" customFormat="1" spans="1:17">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="59"/>
+      <c r="P26" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="59"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>139</v>
+        <v>26</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K27" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
       <c r="N27" t="b">
         <v>1</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
-      <c r="D28" s="51" t="s">
-        <v>143</v>
+      <c r="D28" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
       <c r="N28" t="b">
         <v>1</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1"/>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>178</v>
+      </c>
+      <c r="K29" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>152</v>
+        <v>26</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="K30" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="D31" s="52" t="s">
-        <v>156</v>
+      <c r="D31" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1"/>
+      <c r="D32" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1"/>
+      <c r="D33" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1"/>
+      <c r="D34" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1"/>
+      <c r="D35" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1"/>
+      <c r="D36" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:16">
+      <c r="A37" s="1"/>
+      <c r="D37" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" t="s">
+        <v>225</v>
+      </c>
+      <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:16">
+      <c r="A38" s="1"/>
+      <c r="D38" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" s="48" customFormat="1" spans="1:17">
+      <c r="A39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="H31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="D32" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
-      <c r="D33" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="D34" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
-      <c r="D35" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" t="s">
-        <v>181</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1"/>
-      <c r="D36" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" t="s">
-        <v>186</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:15">
-      <c r="A37" s="1"/>
-      <c r="D37" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="39"/>
-      <c r="H37" t="s">
-        <v>189</v>
-      </c>
-      <c r="I37" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:15">
-      <c r="A38" s="1"/>
-      <c r="D38" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" s="38" customFormat="1" spans="1:16">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="50"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="N40" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" s="81"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="83"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J41" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="47"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="84"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="J42" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="J43" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="J44" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="I45" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N45" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" s="82"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="85"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="E39" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="59"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="99"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="100"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="J42" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="J43" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="K45" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="101"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1"/>
@@ -3928,10 +4363,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -3940,1069 +4375,1225 @@
     <col min="2" max="2" width="30.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="4" width="32.2666666666667" customWidth="1"/>
     <col min="5" max="5" width="38.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
-    <col min="7" max="7" width="21.4571428571429" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="6" max="6" width="30.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="21.4571428571429" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:9">
-      <c r="A12" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:9">
-      <c r="A13" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E2" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:9">
-      <c r="A14" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:9">
-      <c r="A15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="F3" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="D4" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:9">
-      <c r="A16" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="E4" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="F4" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="C5" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="D5" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F5" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E6" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:9">
-      <c r="A21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="F6" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:10">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="C7" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:9">
-      <c r="A22" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="D7" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="E7" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="F7" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:10">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:9">
-      <c r="A23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="C8" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E8" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="F8" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:9">
-      <c r="A24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D9" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E9" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:9">
-      <c r="A25" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="F9" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="D10" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:9">
-      <c r="A26" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="E10" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="F10" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="G10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="C11" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:9">
-      <c r="A27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="D11" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="F11" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:10">
+      <c r="A12" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="20" t="s">
+      <c r="C12" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:10">
+      <c r="A13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:10">
+      <c r="A14" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:10">
+      <c r="A15" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:10">
+      <c r="A16" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:10">
+      <c r="A21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:10">
+      <c r="A22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:10">
+      <c r="A23" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:10">
+      <c r="A24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:10">
+      <c r="A25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:10">
+      <c r="A26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:10">
+      <c r="A27" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A29" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A30" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A31" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A32" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A34" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A35" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A36" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A37" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:7">
+      <c r="A38" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:7">
+      <c r="A39" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:7">
+      <c r="A40" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:7">
+      <c r="A41" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A30" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A31" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A32" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A33" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A34" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A35" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A36" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A37" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:6">
-      <c r="A38" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:6">
-      <c r="A39" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:6">
-      <c r="A40" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:6">
-      <c r="A41" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>343</v>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>416</v>
       </c>
       <c r="D42" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="E42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>347</v>
+        <v>418</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>421</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="E43" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>351</v>
+        <v>423</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>426</v>
       </c>
       <c r="D44" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="E44" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>355</v>
+        <v>428</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>431</v>
       </c>
       <c r="D45" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="E45" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>359</v>
+        <v>433</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>436</v>
       </c>
       <c r="D46" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="E46" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>363</v>
+        <v>438</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>441</v>
       </c>
       <c r="D47" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="E47" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>367</v>
+        <v>443</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>446</v>
       </c>
       <c r="D48" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="E48" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>314</v>
+        <v>448</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="E49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="4:8">
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-    </row>
-    <row r="54" spans="4:8">
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-    </row>
-    <row r="55" spans="4:8">
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="4:8">
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="4:8">
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="4:8">
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+        <v>452</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="4:9">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="4:9">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="4:9">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="4:9">
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="4:9">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="4:9">
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5014,66 +5605,73 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
     <col min="3" max="3" width="32.9619047619048" customWidth="1"/>
     <col min="4" max="4" width="33.7904761904762" customWidth="1"/>
-    <col min="5" max="6" width="12.5428571428571" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="5" max="5" width="26.2380952380952" customWidth="1"/>
+    <col min="6" max="7" width="12.5428571428571" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>376</v>
+        <v>457</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>378</v>
+        <v>458</v>
+      </c>
+      <c r="F1" t="s">
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>460</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>465</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>384</v>
+        <v>157</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
